--- a/DSA Sheet/LoveBabber/FINAL450.xlsx
+++ b/DSA Sheet/LoveBabber/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AK007/Desktop/code/DSA/DSA Sheet/LoveBabber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C0058-799C-944B-A309-E4B2F66650A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB3C13-028A-8E4A-93DF-B09DE365AA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="920" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="4600" yWindow="1020" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2137,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">

--- a/DSA Sheet/LoveBabber/FINAL450.xlsx
+++ b/DSA Sheet/LoveBabber/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AK007/Desktop/code/DSA/DSA Sheet/LoveBabber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB3C13-028A-8E4A-93DF-B09DE365AA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885340B-A8CF-1146-86EA-A514F2E39F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="1020" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="4980" yWindow="1100" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DSA Sheet/LoveBabber/FINAL450.xlsx
+++ b/DSA Sheet/LoveBabber/FINAL450.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AK007/Desktop/code/DSA/DSA Sheet/LoveBabber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885340B-A8CF-1146-86EA-A514F2E39F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3929A-B99C-2E41-A5FC-C0FF16012D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1100" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="860" yWindow="1560" windowWidth="35740" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1434,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -1861,30 +1866,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1894,11 +1899,14 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1908,8 +1916,12 @@
       <c r="C6" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>URL(B6)</f>
+        <v>https://www.geeksforgeeks.org/write-a-program-to-reverse-an-array-or-string/</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1919,8 +1931,12 @@
       <c r="C7" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" ref="D7:D70" si="0">URL(B7)</f>
+        <v>https://www.geeksforgeeks.org/maximum-and-minimum-in-an-array/</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1930,8 +1946,12 @@
       <c r="C8" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/kth-smallest-element/0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1941,8 +1961,12 @@
       <c r="C9" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s/0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1952,8 +1976,12 @@
       <c r="C10" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/move-negative-numbers-beginning-positive-end-constant-extra-space/</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1963,8 +1991,12 @@
       <c r="C11" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/union-of-two-arrays/0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1974,8 +2006,12 @@
       <c r="C12" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/cyclically-rotate-an-array-by-one/0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1985,8 +2021,12 @@
       <c r="C13" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/kadanes-algorithm/0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1996,8 +2036,12 @@
       <c r="C14" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimize-the-heights3351/1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2007,8 +2051,12 @@
       <c r="C15" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-number-of-jumps/0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2018,8 +2066,12 @@
       <c r="C16" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://leetcode.com/problems/find-the-duplicate-number/</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2029,8 +2081,12 @@
       <c r="C17" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/merge-two-sorted-arrays5135/1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2040,8 +2096,12 @@
       <c r="C18" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/kadanes-algorithm/0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2051,8 +2111,12 @@
       <c r="C19" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://leetcode.com/problems/merge-intervals/</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2062,8 +2126,12 @@
       <c r="C20" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://leetcode.com/problems/next-permutation/</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2073,8 +2141,12 @@
       <c r="C21" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/inversion-of-array/0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2084,8 +2156,12 @@
       <c r="C22" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2095,8 +2171,12 @@
       <c r="C23" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-pairs-with-given-sum5022/1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2106,8 +2186,12 @@
       <c r="C24" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/common-elements1132/1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2117,8 +2201,12 @@
       <c r="C25" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/rearrange-array-alternating-positive-negative-items-o1-extra-space/</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2216,12 @@
       <c r="C26" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/subarray-with-0-sum/0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2139,8 +2231,12 @@
       <c r="C27" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/factorials-of-large-numbers/0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2150,8 +2246,12 @@
       <c r="C28" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximum-product-subarray3604/1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2161,8 +2261,12 @@
       <c r="C29" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-consecutive-subsequence/0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2172,8 +2276,12 @@
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/given-an-array-of-of-size-n-finds-all-the-elements-that-appear-more-than-nk-times/</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2183,8 +2291,12 @@
       <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2194,8 +2306,12 @@
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/array-subset-of-another-array/0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2205,8 +2321,12 @@
       <c r="C33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/triplet-sum-in-array/0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2216,8 +2336,12 @@
       <c r="C34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/trapping-rain-water/0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2227,8 +2351,12 @@
       <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/chocolate-distribution-problem/0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2238,8 +2366,12 @@
       <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/smallest-subarray-with-sum-greater-than-x/0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2381,12 @@
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/three-way-partitioning/1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2260,8 +2396,12 @@
       <c r="C38" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-swaps-required-to-bring-all-elements-less-than-or-equal-to-k-together/0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2271,8 +2411,12 @@
       <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/palindromic-array/0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2282,8 +2426,12 @@
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-the-median0527/1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2293,21 +2441,33 @@
       <c r="C41" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D42" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2317,8 +2477,12 @@
       <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/spirally-traversing-a-matrix/0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2328,8 +2492,12 @@
       <c r="C45" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>https://leetcode.com/problems/search-a-2d-matrix/</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2339,8 +2507,12 @@
       <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/median-in-a-row-wise-sorted-matrix1527/1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2350,8 +2522,12 @@
       <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/row-with-max-1s0023/1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2537,12 @@
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/sorted-matrix/0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2372,8 +2552,12 @@
       <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/max-rectangle/1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2383,8 +2567,12 @@
       <c r="C50" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/find-a-specific-pair-in-matrix/</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2394,8 +2582,12 @@
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/rotate-a-matrix-by-90-degree-in-clockwise-direction-without-using-any-extra-space/</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2405,8 +2597,12 @@
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/kth-element-in-matrix/1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2416,13 +2612,27 @@
       <c r="C53" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/common-elements-in-all-rows-of-a-given-matrix/</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D55" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2432,8 +2642,12 @@
       <c r="C56" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>https://leetcode.com/problems/reverse-string/</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2443,8 +2657,12 @@
       <c r="C57" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/palindrome-string0817/1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2454,8 +2672,12 @@
       <c r="C58" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/print-all-the-duplicates-in-the-input-string/</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2465,8 +2687,12 @@
       <c r="C59" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D59" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2476,8 +2702,12 @@
       <c r="C60" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/a-program-to-check-if-strings-are-rotations-of-each-other/</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2487,8 +2717,12 @@
       <c r="C61" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.programiz.com/java-programming/examples/check-valid-shuffle-of-strings</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2498,8 +2732,12 @@
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>https://leetcode.com/problems/count-and-say/</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2509,8 +2747,12 @@
       <c r="C63" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-palindrome-in-a-string/0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2520,8 +2762,12 @@
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-repeating-subsequence/0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2531,8 +2777,12 @@
       <c r="C65" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/print-subsequences-string/</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2542,8 +2792,12 @@
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2553,8 +2807,12 @@
       <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geeksforgeeks.org/split-the-binary-string-into-substrings-with-equal-number-of-0s-and-1s/</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2564,8 +2822,12 @@
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/word-wrap/0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2575,8 +2837,12 @@
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D69" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/edit-distance3702/1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2586,8 +2852,12 @@
       <c r="C70" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="0"/>
+        <v>https://practice.geeksforgeeks.org/problems/next-permutation/0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2597,8 +2867,12 @@
       <c r="C71" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D71" t="str">
+        <f t="shared" ref="D71:D134" si="1">URL(B71)</f>
+        <v>https://practice.geeksforgeeks.org/problems/parenthesis-checker/0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2608,8 +2882,12 @@
       <c r="C72" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/word-break/0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2619,8 +2897,12 @@
       <c r="C73" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2630,8 +2912,12 @@
       <c r="C74" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-prefix-suffix2527/1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2641,8 +2927,12 @@
       <c r="C75" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/convert-sentence-equivalent-mobile-numeric-keypad-sequence/</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2652,8 +2942,12 @@
       <c r="C76" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-the-reversals/0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2663,8 +2957,12 @@
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2674,8 +2972,12 @@
       <c r="C78" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/find-count-number-given-string-present-2d-character-array/</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2685,8 +2987,12 @@
       <c r="C79" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-the-string-in-grid/0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2696,8 +3002,12 @@
       <c r="C80" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/boyer-moore-algorithm-for-pattern-searching/</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2707,8 +3017,12 @@
       <c r="C81" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/roman-number-to-integer/0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2718,8 +3032,12 @@
       <c r="C82" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>https://leetcode.com/problems/longest-common-prefix/</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2729,8 +3047,12 @@
       <c r="C83" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/min-number-of-flips/0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2740,8 +3062,12 @@
       <c r="C84" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/second-most-repeated-string-in-a-sequence/0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2751,8 +3077,12 @@
       <c r="C85" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-swaps-for-bracket-balancing/0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2762,8 +3092,12 @@
       <c r="C86" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-common-subsequence/0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2773,8 +3107,12 @@
       <c r="C87" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/program-generate-possible-valid-ip-addresses-given-string/</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2784,8 +3122,12 @@
       <c r="C88" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/smallest-distant-window/0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3137,12 @@
       <c r="C89" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/rearrange-characters/0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2806,8 +3152,12 @@
       <c r="C90" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/minimum-characters-added-front-make-string-palindrome/</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2817,8 +3167,12 @@
       <c r="C91" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/k-anagrams-1/0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2828,8 +3182,12 @@
       <c r="C92" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/smallest-window-in-a-string-containing-all-the-characters-of-another-string/0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2839,8 +3197,12 @@
       <c r="C93" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/consecutive-elements/0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2850,8 +3212,12 @@
       <c r="C94" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/wildcard-string-matching/0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2861,8 +3227,12 @@
       <c r="C95" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/function-to-find-number-of-customers-who-could-not-get-a-computer/</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2872,8 +3242,12 @@
       <c r="C96" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/transform-one-string-to-another-using-minimum-number-of-given-operation/</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2883,8 +3257,12 @@
       <c r="C97" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/isomorphic-strings/0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -2894,13 +3272,27 @@
       <c r="C98" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/recursively-print-all-sentences-that-can-be-formed-from-list-of-word-lists/</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D100" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -2910,8 +3302,12 @@
       <c r="C101" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/first-and-last-occurrences-of-x/0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -2921,8 +3317,12 @@
       <c r="C102" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/value-equal-to-index-value1330/1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -2932,8 +3332,12 @@
       <c r="C103" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>https://leetcode.com/problems/search-in-rotated-sorted-array/</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -2943,8 +3347,12 @@
       <c r="C104" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-squares3649/1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -2954,8 +3362,12 @@
       <c r="C105" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/middle-of-three2926/1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -2965,8 +3377,12 @@
       <c r="C106" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/optimum-location-point-minimize-total-distance/</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -2976,8 +3392,12 @@
       <c r="C107" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-missing-and-repeating2512/1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -2987,8 +3407,12 @@
       <c r="C108" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/majority-element/0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -2998,8 +3422,12 @@
       <c r="C109" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3009,8 +3437,12 @@
       <c r="C110" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-pair-given-difference/0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3020,8 +3452,12 @@
       <c r="C111" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-all-four-sum-numbers/0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3031,8 +3467,12 @@
       <c r="C112" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/stickler-theif/0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3042,8 +3482,12 @@
       <c r="C113" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-triplets-with-sum-smaller-than-x5549/1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3053,8 +3497,12 @@
       <c r="C114" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/merge-two-sorted-arrays5135/1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3064,8 +3512,12 @@
       <c r="C115" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/zero-sum-subarrays/0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3075,8 +3527,12 @@
       <c r="C116" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/product-array-puzzle/0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3086,8 +3542,12 @@
       <c r="C117" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/sort-by-set-bit-count/0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3097,8 +3557,12 @@
       <c r="C118" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-swaps/1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3108,8 +3572,12 @@
       <c r="C119" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.hackerearth.com/practice/algorithms/searching/binary-search/practice-problems/algorithm/bishu-and-soldiers/</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3119,8 +3587,12 @@
       <c r="C120" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.hackerearth.com/practice/algorithms/searching/binary-search/practice-problems/algorithm/rasta-and-kheshtak/</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3130,8 +3602,12 @@
       <c r="C121" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.hackerearth.com/practice/algorithms/searching/binary-search/practice-problems/algorithm/kth-smallest-number-again-2/</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3141,8 +3617,12 @@
       <c r="C122" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>http://theoryofprogramming.com/2017/12/16/find-pivot-element-sorted-rotated-array/</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3152,8 +3632,12 @@
       <c r="C123" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/k-th-element-of-two-sorted-array/0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3163,8 +3647,12 @@
       <c r="C124" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.spoj.com/problems/AGGRCOW/</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3174,8 +3662,12 @@
       <c r="C125" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages/0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3185,8 +3677,12 @@
       <c r="C126" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.spoj.com/problems/EKO/</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3196,8 +3692,12 @@
       <c r="C127" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.geeksforgeeks.org/weighted-job-scheduling-log-n-time/</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3207,8 +3707,12 @@
       <c r="C128" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/arithmetic-number/0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3218,8 +3722,12 @@
       <c r="C129" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/smallest-factorial-number5929/1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3229,8 +3737,12 @@
       <c r="C130" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages/0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3240,8 +3752,12 @@
       <c r="C131" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D131" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.spoj.com/problems/PRATA/</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3251,8 +3767,12 @@
       <c r="C132" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D132" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.spoj.com/problems/ANARC05B/</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3262,8 +3782,12 @@
       <c r="C133" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D133" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.spoj.com/problems/SUBSUMS/</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3273,8 +3797,12 @@
       <c r="C134" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D134" t="str">
+        <f t="shared" si="1"/>
+        <v>https://practice.geeksforgeeks.org/problems/inversion-of-array/0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3284,8 +3812,12 @@
       <c r="C135" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D135" t="str">
+        <f t="shared" ref="D135:D198" si="2">URL(B135)</f>
+        <v>https://www.geeksforgeeks.org/in-place-merge-sort/</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3295,12 +3827,26 @@
       <c r="C136" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.baeldung.com/java-sorting-arrays-with-repeated-entries</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D138" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3310,8 +3856,12 @@
       <c r="C139" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/reverse-a-linked-list/</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3321,8 +3871,12 @@
       <c r="C140" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/reverse-a-linked-list-in-groups-of-given-size/1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3332,8 +3886,12 @@
       <c r="C141" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/detect-loop-in-linked-list/1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3343,8 +3901,12 @@
       <c r="C142" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/remove-loop-in-linked-list/1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3354,8 +3916,12 @@
       <c r="C143" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/find-first-node-of-loop-in-a-linked-list/</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3365,8 +3931,12 @@
       <c r="C144" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/remove-duplicate-element-from-sorted-linked-list/1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3376,8 +3946,12 @@
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/remove-duplicates-from-an-unsorted-linked-list/1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3387,8 +3961,12 @@
       <c r="C146" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/move-last-element-to-front-of-a-given-linked-list/</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3398,8 +3976,12 @@
       <c r="C147" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/add-1-to-a-number-represented-as-linked-list/1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3409,8 +3991,12 @@
       <c r="C148" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/add-two-numbers-represented-by-linked-lists/1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3420,8 +4006,12 @@
       <c r="C149" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/intersection-of-two-sorted-linked-lists/1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3431,8 +4021,12 @@
       <c r="C150" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/intersection-point-in-y-shapped-linked-lists/1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3442,8 +4036,12 @@
       <c r="C151" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/sort-a-linked-list/1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3453,8 +4051,12 @@
       <c r="C152" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/quick-sort-on-linked-list/1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3464,8 +4066,12 @@
       <c r="C153" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>https://leetcode.com/problems/middle-of-the-linked-list/</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3475,8 +4081,12 @@
       <c r="C154" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/circular-linked-list/1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3486,8 +4096,12 @@
       <c r="C155" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/split-a-circular-linked-list-into-two-halves/1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3497,8 +4111,12 @@
       <c r="C156" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/check-if-linked-list-is-pallindrome/1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3508,8 +4126,12 @@
       <c r="C157" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/deletion-circular-linked-list/</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3519,8 +4141,12 @@
       <c r="C158" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/reverse-a-doubly-linked-list/1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3530,8 +4156,12 @@
       <c r="C159" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/find-pairs-given-sum-doubly-linked-list/</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3541,8 +4171,12 @@
       <c r="C160" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/count-triplets-sorted-doubly-linked-list-whose-sum-equal-given-value-x/</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3552,8 +4186,12 @@
       <c r="C161" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/sort-k-sorted-doubly-linked-list/</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3563,8 +4201,12 @@
       <c r="C162" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/rotate-doubly-linked-list-n-nodes/</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3574,8 +4216,12 @@
       <c r="C163" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/reverse-doubly-linked-list-groups-given-size/</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3585,8 +4231,12 @@
       <c r="C164" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D164" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3596,8 +4246,12 @@
       <c r="C165" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D165" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3607,8 +4261,12 @@
       <c r="C166" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/flattening-a-linked-list/1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3618,8 +4276,12 @@
       <c r="C167" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/given-a-linked-list-of-0s-1s-and-2s-sort-it/1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3629,8 +4291,12 @@
       <c r="C168" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/clone-a-linked-list-with-next-and-random-pointer/1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3640,8 +4306,12 @@
       <c r="C169" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/merge-k-sorted-linked-lists/1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3651,8 +4321,12 @@
       <c r="C170" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/multiply-two-linked-lists/1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3662,8 +4336,12 @@
       <c r="C171" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/delete-nodes-having-greater-value-on-right/1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3673,8 +4351,12 @@
       <c r="C172" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/segregate-even-and-odd-nodes-in-a-linked-list/0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3684,8 +4366,12 @@
       <c r="C173" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/nth-node-from-end-of-linked-list/1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3695,12 +4381,26 @@
       <c r="C174" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/first-non-repeating-character-in-a-stream/0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D175" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
-    </row>
-    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D176" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3710,8 +4410,12 @@
       <c r="C177" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/level-order-traversal/1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3721,8 +4425,12 @@
       <c r="C178" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/reverse-level-order-traversal/1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3732,8 +4440,12 @@
       <c r="C179" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/height-of-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3743,8 +4455,12 @@
       <c r="C180" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/diameter-of-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3754,8 +4470,12 @@
       <c r="C181" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/create-a-mirror-tree-from-the-given-binary-tree/</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3765,8 +4485,12 @@
       <c r="C182" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.techiedelight.com/inorder-tree-traversal-iterative-recursive/</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3776,8 +4500,12 @@
       <c r="C183" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.techiedelight.com/preorder-tree-traversal-iterative-recursive/</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3787,8 +4515,12 @@
       <c r="C184" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.techiedelight.com/postorder-tree-traversal-iterative-recursive/</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3798,8 +4530,12 @@
       <c r="C185" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3809,8 +4545,12 @@
       <c r="C186" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3820,8 +4560,12 @@
       <c r="C187" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3831,8 +4575,12 @@
       <c r="C188" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3842,8 +4590,12 @@
       <c r="C189" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/zigzag-tree-traversal/1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3853,8 +4605,12 @@
       <c r="C190" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/check-for-balanced-tree/1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3864,8 +4620,12 @@
       <c r="C191" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3875,8 +4635,12 @@
       <c r="C192" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -3886,8 +4650,12 @@
       <c r="C193" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/construct-binary-tree-string-bracket-representation/</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -3897,8 +4665,12 @@
       <c r="C194" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -3908,8 +4680,12 @@
       <c r="C195" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D195" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/transform-to-sum-tree/1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -3919,8 +4695,12 @@
       <c r="C196" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D196" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/construct-tree-1/1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -3930,8 +4710,12 @@
       <c r="C197" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D197" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.geeksforgeeks.org/minimum-swap-required-convert-binary-tree-binary-search-tree/</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -3941,8 +4725,12 @@
       <c r="C198" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D198" t="str">
+        <f t="shared" si="2"/>
+        <v>https://practice.geeksforgeeks.org/problems/sum-tree/1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -3952,8 +4740,12 @@
       <c r="C199" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D199" t="str">
+        <f t="shared" ref="D199:D262" si="3">URL(B199)</f>
+        <v>https://practice.geeksforgeeks.org/problems/leaf-at-same-level/1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -3963,8 +4755,12 @@
       <c r="C200" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/duplicate-subtree-in-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -3974,8 +4770,12 @@
       <c r="C201" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/check-mirror-in-n-ary-tree/0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -3985,8 +4785,12 @@
       <c r="C202" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/sum-of-the-longest-bloodline-of-a-tree/1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -3996,8 +4800,12 @@
       <c r="C203" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/check-given-graph-tree/</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4007,8 +4815,12 @@
       <c r="C204" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/find-largest-subtree-sum-tree/</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4018,8 +4830,12 @@
       <c r="C205" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/maximum-sum-nodes-binary-tree-no-two-adjacent/</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4029,8 +4845,12 @@
       <c r="C206" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4040,8 +4860,12 @@
       <c r="C207" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4051,8 +4875,12 @@
       <c r="C208" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4062,8 +4890,12 @@
       <c r="C209" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/kth-ancestor-node-binary-tree-set-2/</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4073,8 +4905,12 @@
       <c r="C210" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/duplicate-subtrees/1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4084,18 +4920,30 @@
       <c r="C211" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/check-if-tree-is-isomorphic/1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
-    </row>
-    <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D212" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
-    </row>
-    <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D213" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4105,8 +4953,12 @@
       <c r="C214" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/binary-search-tree-set-1-search-and-insertion/</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4116,8 +4968,12 @@
       <c r="C215" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>https://leetcode.com/problems/delete-node-in-a-bst/</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4127,8 +4983,12 @@
       <c r="C216" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-element-in-bst/1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4138,8 +4998,12 @@
       <c r="C217" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4149,8 +5013,12 @@
       <c r="C218" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/check-for-bst/1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4160,8 +5028,12 @@
       <c r="C219" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/populate-inorder-successor-for-all-nodes/1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4171,8 +5043,12 @@
       <c r="C220" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-bst/1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4182,8 +5058,12 @@
       <c r="C221" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4193,8 +5073,12 @@
       <c r="C222" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/binary-tree-to-bst/1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4204,8 +5088,12 @@
       <c r="C223" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/convert-normal-bst-balanced-bst/</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4215,8 +5103,12 @@
       <c r="C224" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4226,8 +5118,12 @@
       <c r="C225" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/kth-largest-element-in-bst/1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4237,8 +5133,12 @@
       <c r="C226" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-k-th-smallest-element-in-bst/1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4248,8 +5148,12 @@
       <c r="C227" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/brothers-from-different-root/1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4259,8 +5163,12 @@
       <c r="C228" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/find-median-bst-time-o1-space/</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4270,8 +5178,12 @@
       <c r="C229" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4281,8 +5193,12 @@
       <c r="C230" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/replace-every-element-with-the-least-greater-element-on-its-right/</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4292,8 +5208,12 @@
       <c r="C231" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/given-n-appointments-find-conflicting-appointments/</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4303,8 +5223,12 @@
       <c r="C232" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/preorder-to-postorder/0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4314,8 +5238,12 @@
       <c r="C233" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4325,8 +5253,12 @@
       <c r="C234" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/largest-bst/1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4336,16 +5268,28 @@
       <c r="C235" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/flatten-bst-to-sorted-list-increasing-order/</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
-    </row>
-    <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D236" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
-    </row>
-    <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D237" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4355,8 +5299,12 @@
       <c r="C238" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/n-meetings-in-one-room/0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4366,8 +5314,12 @@
       <c r="C239" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/job-sequencing-problem/0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4377,8 +5329,12 @@
       <c r="C240" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/huffman-encoding/0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4388,8 +5344,12 @@
       <c r="C241" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/water-connection-problem/0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4399,8 +5359,12 @@
       <c r="C242" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/fractional-knapsack/0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4410,8 +5374,12 @@
       <c r="C243" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/coin-piles/0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4421,8 +5389,12 @@
       <c r="C244" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/maximum-trains-stoppage-can-provided/</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4432,8 +5404,12 @@
       <c r="C245" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-platforms/0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4443,8 +5419,12 @@
       <c r="C246" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/buy-maximum-stocks-stocks-can-bought-th-day/</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4454,8 +5434,12 @@
       <c r="C247" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/shop-in-candy-store/0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4465,8 +5449,12 @@
       <c r="C248" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4476,8 +5464,12 @@
       <c r="C249" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4487,8 +5479,12 @@
       <c r="C250" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/survival/</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4498,8 +5494,12 @@
       <c r="C251" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/find-maximum-meetings-in-one-room/</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4509,8 +5509,12 @@
       <c r="C252" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/maximum-product-subset-array/</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4520,8 +5524,12 @@
       <c r="C253" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximize-sum-after-k-negations/0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4531,8 +5539,12 @@
       <c r="C254" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximize-arrii-of-an-array/0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4542,8 +5554,12 @@
       <c r="C255" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/maximum-sum-absolute-difference-array/</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4553,8 +5569,12 @@
       <c r="C256" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/swap-and-maximize/0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4564,8 +5584,12 @@
       <c r="C257" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4575,8 +5599,12 @@
       <c r="C258" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/program-for-shortest-job-first-or-sjf-cpu-scheduling-set-1-non-preemptive/</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4586,8 +5614,12 @@
       <c r="C259" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D259" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/page-faults-in-lru/0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4597,8 +5629,12 @@
       <c r="C260" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D260" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.geeksforgeeks.org/smallest-subset-sum-greater-elements/</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4608,8 +5644,12 @@
       <c r="C261" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D261" t="str">
+        <f t="shared" si="3"/>
+        <v>https://practice.geeksforgeeks.org/problems/chocolate-distribution-problem/0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4619,8 +5659,12 @@
       <c r="C262" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D262" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.spoj.com/problems/DEFKIN/</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4630,8 +5674,12 @@
       <c r="C263" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D263" t="str">
+        <f t="shared" ref="D263:D326" si="4">URL(B263)</f>
+        <v>https://www.spoj.com/problems/DIEHARD/</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4641,8 +5689,12 @@
       <c r="C264" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.spoj.com/problems/GERGOVIA/</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4652,8 +5704,12 @@
       <c r="C265" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.spoj.com/problems/GCJ101BB/</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4663,8 +5719,12 @@
       <c r="C266" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.spoj.com/problems/CHOCOLA/</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4674,8 +5734,12 @@
       <c r="C267" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.spoj.com/problems/ARRANGE/</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4685,8 +5749,12 @@
       <c r="C268" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/k-centers-problem-set-1-greedy-approximate-algorithm/</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4696,8 +5764,12 @@
       <c r="C269" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-cost-of-ropes/0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4707,8 +5779,12 @@
       <c r="C270" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/smallest-number5829/1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4718,8 +5794,12 @@
       <c r="C271" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/rearrange-characters/0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4729,16 +5809,28 @@
       <c r="C272" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D272" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
-    </row>
-    <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D273" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
-    </row>
-    <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D274" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -4748,8 +5840,12 @@
       <c r="C275" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D275" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -4759,8 +5855,12 @@
       <c r="C276" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D276" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/printing-solutions-n-queen-problem/</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -4770,8 +5870,12 @@
       <c r="C277" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D277" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/word-break-part-2/0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -4781,8 +5885,12 @@
       <c r="C278" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D278" t="str">
+        <f t="shared" si="4"/>
+        <v>https://leetcode.com/problems/remove-invalid-parentheses/</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -4792,8 +5900,12 @@
       <c r="C279" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D279" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/solve-the-sudoku/0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4803,8 +5915,12 @@
       <c r="C280" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D280" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/m-coloring-problem/0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -4814,8 +5930,12 @@
       <c r="C281" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D281" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/given-a-string-print-all-possible-palindromic-partition/</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -4825,8 +5945,12 @@
       <c r="C282" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D282" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -4836,8 +5960,12 @@
       <c r="C283" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D283" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/the-knights-tour-problem-backtracking-1/</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -4847,8 +5975,12 @@
       <c r="C284" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D284" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/tug-of-war/</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -4858,8 +5990,12 @@
       <c r="C285" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D285" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -4869,8 +6005,12 @@
       <c r="C286" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D286" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/combination-sum/0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -4880,8 +6020,12 @@
       <c r="C287" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D287" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/largest-number-in-k-swaps/0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -4891,8 +6035,12 @@
       <c r="C288" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D288" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -4902,8 +6050,12 @@
       <c r="C289" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D289" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
@@ -4913,8 +6065,12 @@
       <c r="C290" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D290" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
@@ -4924,8 +6080,12 @@
       <c r="C291" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D291" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/print-all-possible-paths-from-top-left-to-bottom-right-of-a-mxn-matrix/</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -4935,8 +6095,12 @@
       <c r="C292" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D292" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/partition-array-to-k-subsets/1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -4946,16 +6110,28 @@
       <c r="C293" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D293" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/find-the-k-th-permutation-sequence-of-first-n-natural-numbers/</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
-    </row>
-    <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D294" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
-    </row>
-    <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D295" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -4965,8 +6141,12 @@
       <c r="C296" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D296" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.tutorialspoint.com/javaexamples/data_stack.htm</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -4976,8 +6156,12 @@
       <c r="C297" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D297" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/queue-set-1introduction-and-array-implementation/</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -4987,8 +6171,12 @@
       <c r="C298" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D298" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/implement-two-stacks-in-an-array/1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -4998,8 +6186,12 @@
       <c r="C299" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D299" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5009,8 +6201,12 @@
       <c r="C300" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D300" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5020,8 +6216,12 @@
       <c r="C301" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D301" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/parenthesis-checker/0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5031,8 +6231,12 @@
       <c r="C302" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D302" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/reverse-a-string-using-stack/1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5042,8 +6246,12 @@
       <c r="C303" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D303" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/special-stack/1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5053,8 +6261,12 @@
       <c r="C304" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D304" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/next-larger-element/0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5064,8 +6276,12 @@
       <c r="C305" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D305" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/the-celebrity-problem/1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5075,8 +6291,12 @@
       <c r="C306" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D306" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/arithmetic-expression-evalution/</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5086,8 +6306,12 @@
       <c r="C307" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D307" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/evaluation-of-postfix-expression/0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5097,8 +6321,12 @@
       <c r="C308" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D308" t="str">
+        <f t="shared" si="4"/>
+        <v>https://stackoverflow.com/questions/45130465/inserting-at-the-end-of-stack</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5108,8 +6336,12 @@
       <c r="C309" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D309" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/reverse-a-stack-using-recursion/</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5119,8 +6351,12 @@
       <c r="C310" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D310" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/sort-a-stack/1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5130,8 +6366,12 @@
       <c r="C311" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D311" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/overlapping-intervals/0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5141,8 +6381,12 @@
       <c r="C312" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D312" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximum-rectangular-area-in-a-histogram/0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5152,8 +6396,12 @@
       <c r="C313" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D313" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/valid-substring0624/1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5163,8 +6411,12 @@
       <c r="C314" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D314" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/expression-contains-redundant-bracket-not/</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5174,8 +6426,12 @@
       <c r="C315" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D315" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/stack-using-two-queues/1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5185,8 +6441,12 @@
       <c r="C316" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D316" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/implement-stack-queue-using-deque/</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5196,8 +6456,12 @@
       <c r="C317" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D317" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5207,8 +6471,12 @@
       <c r="C318" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D318" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/queue-using-two-stacks/1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5218,8 +6486,12 @@
       <c r="C319" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D319" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/efficiently-implement-k-queues-single-array/</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5229,8 +6501,12 @@
       <c r="C320" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D320" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/circular-queue-set-1-introduction-array-implementation/</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5240,8 +6516,12 @@
       <c r="C321" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D321" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/lru-cache/1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5251,8 +6531,12 @@
       <c r="C322" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D322" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/queue-reversal/1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5262,8 +6546,12 @@
       <c r="C323" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D323" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/reverse-first-k-elements-of-queue/1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5273,8 +6561,12 @@
       <c r="C324" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D324" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.geeksforgeeks.org/interleave-first-half-queue-second-half/</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5284,8 +6576,12 @@
       <c r="C325" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D325" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/circular-tour/1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5295,8 +6591,12 @@
       <c r="C326" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D326" t="str">
+        <f t="shared" si="4"/>
+        <v>https://practice.geeksforgeeks.org/problems/rotten-oranges/0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5306,8 +6606,12 @@
       <c r="C327" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D327" t="str">
+        <f t="shared" ref="D327:D390" si="5">URL(B327)</f>
+        <v>https://practice.geeksforgeeks.org/problems/distance-of-nearest-cell-having-1/0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5317,8 +6621,12 @@
       <c r="C328" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D328" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/first-negative-integer-in-every-window-of-size-k/0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5328,8 +6636,12 @@
       <c r="C329" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D329" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/check-if-all-levels-of-two-trees-are-anagrams-or-not/</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5339,8 +6651,12 @@
       <c r="C330" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D330" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/sum-minimum-maximum-elements-subarrays-size-k/</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5350,8 +6666,12 @@
       <c r="C331" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D331" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/game-with-string/0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5361,8 +6681,12 @@
       <c r="C332" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D332" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/first-non-repeating-character-in-a-stream/0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5372,16 +6696,28 @@
       <c r="C333" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D333" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/next-smaller-element/</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
-    </row>
-    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D334" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
-    </row>
-    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D335" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5391,8 +6727,12 @@
       <c r="C336" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D336" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/building-heap-from-array/</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -5402,8 +6742,12 @@
       <c r="C337" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D337" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/heap-sort/</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -5413,8 +6757,12 @@
       <c r="C338" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D338" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -5424,8 +6772,12 @@
       <c r="C339" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D339" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/k-largest-elements4206/1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -5435,8 +6787,12 @@
       <c r="C340" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D340" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -5446,8 +6802,12 @@
       <c r="C341" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D341" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/merge-k-sorted-arrays/1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -5457,8 +6817,12 @@
       <c r="C342" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D342" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/merge-two-binary-max-heap/0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5468,8 +6832,12 @@
       <c r="C343" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D343" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/k-th-largest-sum-contiguous-subarray/</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -5479,8 +6847,12 @@
       <c r="C344" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D344" t="str">
+        <f t="shared" si="5"/>
+        <v>https://leetcode.com/problems/reorganize-string/</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5490,8 +6862,12 @@
       <c r="C345" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D345" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/merge-k-sorted-linked-lists/1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -5501,8 +6877,12 @@
       <c r="C346" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D346" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-smallest-range-containing-elements-from-k-lists/1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -5512,8 +6892,12 @@
       <c r="C347" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D347" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-median-in-a-stream/0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -5523,8 +6907,12 @@
       <c r="C348" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D348" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/is-binary-tree-heap/1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -5534,8 +6922,12 @@
       <c r="C349" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D349" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-cost-of-ropes/0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -5545,8 +6937,12 @@
       <c r="C350" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D350" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/convert-bst-min-heap/</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -5556,8 +6952,12 @@
       <c r="C351" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D351" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/convert-min-heap-to-max-heap/</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -5567,8 +6967,12 @@
       <c r="C352" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D352" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/rearrange-characters/0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5578,16 +6982,28 @@
       <c r="C353" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D353" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-sum4058/1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
-    </row>
-    <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D354" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
-    </row>
-    <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D355" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5597,8 +7013,12 @@
       <c r="C356" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D356" t="str">
+        <f t="shared" si="5"/>
+        <v>https://1drv.ms/t/s!AqTOHFO77CqEiRua06v1PATyiFg5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5608,8 +7028,12 @@
       <c r="C357" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D357" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5619,8 +7043,12 @@
       <c r="C358" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D358" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5630,8 +7058,12 @@
       <c r="C359" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D359" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/detect-cycle-in-a-graph/</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5641,8 +7073,12 @@
       <c r="C360" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D360" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5652,8 +7088,12 @@
       <c r="C361" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D361" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5663,8 +7103,12 @@
       <c r="C362" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D362" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/steps-by-knight/0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5674,8 +7118,12 @@
       <c r="C363" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D363" t="str">
+        <f t="shared" si="5"/>
+        <v>https://leetcode.com/problems/flood-fill/</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5685,8 +7133,12 @@
       <c r="C364" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D364" t="str">
+        <f t="shared" si="5"/>
+        <v>https://leetcode.com/problems/clone-graph/</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5696,8 +7148,12 @@
       <c r="C365" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D365" t="str">
+        <f t="shared" si="5"/>
+        <v>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5707,8 +7163,12 @@
       <c r="C366" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D366" t="str">
+        <f t="shared" si="5"/>
+        <v>https://leetcode.com/problems/word-ladder/</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5718,8 +7178,12 @@
       <c r="C367" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D367" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5729,8 +7193,12 @@
       <c r="C368" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D368" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/topological-sort/1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5740,8 +7208,12 @@
       <c r="C369" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D369" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/minimum-time-taken-by-each-job-to-be-completed-given-by-a-directed-acyclic-graph/</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5751,8 +7223,12 @@
       <c r="C370" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D370" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5762,8 +7238,12 @@
       <c r="C371" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D371" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-the-number-of-islands/1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5773,8 +7253,12 @@
       <c r="C372" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D372" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/alien-dictionary/1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5784,8 +7268,12 @@
       <c r="C373" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D373" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5795,8 +7283,12 @@
       <c r="C374" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D374" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/prims-minimum-spanning-tree-mst-greedy-algo-5/</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5806,8 +7298,12 @@
       <c r="C375" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D375" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/total-number-spanning-trees-graph/</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5817,8 +7313,12 @@
       <c r="C376" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D376" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/negative-weight-cycle/0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5828,8 +7328,12 @@
       <c r="C377" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D377" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/implementing-floyd-warshall/0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5839,8 +7343,12 @@
       <c r="C378" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D378" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/travelling-salesman-problem-set-1/</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5850,8 +7358,12 @@
       <c r="C379" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D379" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/graph-coloring-applications/</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5861,8 +7373,12 @@
       <c r="C380" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D380" t="str">
+        <f t="shared" si="5"/>
+        <v>https://leetcode.com/problems/snakes-and-ladders/</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5872,8 +7388,12 @@
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D381" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/bridge-in-a-graph/</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -5883,8 +7403,12 @@
       <c r="C382" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D382" t="str">
+        <f t="shared" si="5"/>
+        <v>https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -5894,8 +7418,12 @@
       <c r="C383" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D383" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/bipartite-graph/</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -5905,8 +7433,12 @@
       <c r="C384" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D384" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -5916,8 +7448,12 @@
       <c r="C385" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D385" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -5927,8 +7463,12 @@
       <c r="C386" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D386" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.hackerrank.com/challenges/journey-to-the-moon/problem</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -5938,8 +7478,12 @@
       <c r="C387" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D387" t="str">
+        <f t="shared" si="5"/>
+        <v>https://leetcode.com/problems/cheapest-flights-within-k-stops/description/</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -5949,8 +7493,12 @@
       <c r="C388" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D388" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.hackerearth.com/practice/algorithms/graphs/topological-sort/practice-problems/algorithm/oliver-and-the-game-3/</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -5960,8 +7508,12 @@
       <c r="C389" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D389" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/water-jug-problem-using-bfs/</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -5971,8 +7523,12 @@
       <c r="C390" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D390" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.geeksforgeeks.org/water-jug-problem-using-bfs/</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -5982,8 +7538,12 @@
       <c r="C391" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D391" t="str">
+        <f t="shared" ref="D391:D454" si="6">URL(B391)</f>
+        <v>https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -5993,8 +7553,12 @@
       <c r="C392" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D392" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/m-coloring-problem/0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6004,8 +7568,12 @@
       <c r="C393" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D393" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6015,8 +7583,12 @@
       <c r="C394" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D394" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/paths-travel-nodes-using-edgeseven-bridges-konigsberg/</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6026,8 +7598,12 @@
       <c r="C395" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D395" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/vertex-cover-problem-set-1-introduction-approximate-algorithm-2/</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6037,8 +7613,12 @@
       <c r="C396" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D396" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/chinese-postman-route-inspection-set-1-introduction/</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6048,8 +7628,12 @@
       <c r="C397" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D397" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/number-of-triangles-in-directed-and-undirected-graphs/</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6059,8 +7643,12 @@
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D398" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6070,16 +7658,28 @@
       <c r="C399" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D399" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/two-clique-problem-check-graph-can-divided-two-cliques/</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
-    </row>
-    <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D400" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
-    </row>
-    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D401" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6089,8 +7689,12 @@
       <c r="C402" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D402" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/trie-insert-and-search/</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6100,8 +7704,12 @@
       <c r="C403" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D403" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/find-all-shortest-unique-prefixes-to-represent-each-word-in-a-given-list/</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6111,8 +7719,12 @@
       <c r="C404" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D404" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/word-break-problem-trie-solution/</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6122,8 +7734,12 @@
       <c r="C405" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D405" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/k-anagrams-1/0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6133,8 +7749,12 @@
       <c r="C406" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D406" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/phone-directory/0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6144,16 +7764,28 @@
       <c r="C407" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D407" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/unique-rows-in-boolean-matrix/1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
-    </row>
-    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D408" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
-    </row>
-    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D409" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -6163,8 +7795,12 @@
       <c r="C410" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D410" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/coin-change2448/1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6174,8 +7810,12 @@
       <c r="C411" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D411" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/0-1-knapsack-problem/0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6185,8 +7825,12 @@
       <c r="C412" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D412" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/ncr1019/1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6196,8 +7840,12 @@
       <c r="C413" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D413" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/permutation-coefficient/</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6207,8 +7855,12 @@
       <c r="C414" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D414" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/program-nth-catalan-number/</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6218,8 +7870,12 @@
       <c r="C415" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D415" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6229,8 +7885,12 @@
       <c r="C416" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D416" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/edit-distance3702/1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6240,8 +7900,12 @@
       <c r="C417" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D417" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6251,8 +7915,12 @@
       <c r="C418" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D418" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/friends-pairing-problem5425/1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6262,8 +7930,12 @@
       <c r="C419" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D419" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/gold-mine-problem/</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6273,8 +7945,12 @@
       <c r="C420" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D420" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/assembly-line-scheduling-dp-34/</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6284,8 +7960,12 @@
       <c r="C421" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D421" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/painting-the-fence3727/1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6295,8 +7975,12 @@
       <c r="C422" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D422" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/cutted-segments/0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6306,8 +7990,12 @@
       <c r="C423" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D423" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-common-subsequence/0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6317,8 +8005,12 @@
       <c r="C424" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D424" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-repeating-subsequence/0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6328,8 +8020,12 @@
       <c r="C425" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D425" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-increasing-subsequence/0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6339,8 +8035,12 @@
       <c r="C426" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D426" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/space-optimized-solution-lcs/</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6350,8 +8050,12 @@
       <c r="C427" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D427" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/lcs-of-three-strings/0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6361,8 +8065,12 @@
       <c r="C428" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D428" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximum-sum-increasing-subsequence4749/1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6372,8 +8080,12 @@
       <c r="C429" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D429" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/count-subsequences-product-less-k/</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6383,8 +8095,12 @@
       <c r="C430" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D430" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-subsequence-such-that-difference-between-adjacents-is-one4724/1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6394,8 +8110,12 @@
       <c r="C431" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D431" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/maximum-subsequence-sum-such-that-no-three-are-consecutive/</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6405,8 +8125,12 @@
       <c r="C432" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D432" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/egg-dropping-puzzle/0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6416,8 +8140,12 @@
       <c r="C433" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D433" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/max-length-chain/1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6427,8 +8155,12 @@
       <c r="C434" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D434" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/largest-square-formed-in-a-matrix/0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6438,8 +8170,12 @@
       <c r="C435" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D435" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/pairs-with-specific-difference/0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6449,8 +8185,12 @@
       <c r="C436" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D436" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/path-in-matrix3805/1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6460,8 +8200,12 @@
       <c r="C437" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D437" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximum-difference-of-zeros-and-ones-in-binary-string4111/1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6471,8 +8215,12 @@
       <c r="C438" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D438" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-number-of-jumps/0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6482,8 +8230,12 @@
       <c r="C439" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D439" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/minimum-cost-to-fill-given-weight-in-a-bag1956/1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6493,8 +8245,12 @@
       <c r="C440" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D440" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/minimum-removals-array-make-max-min-k/</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6504,8 +8260,12 @@
       <c r="C441" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D441" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-common-substring/0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6515,8 +8275,12 @@
       <c r="C442" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D442" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/reach-a-given-score/0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6526,8 +8290,12 @@
       <c r="C443" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D443" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/bbt-counter/0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6537,8 +8305,12 @@
       <c r="C444" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D444" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/kadanes-algorithm/0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6548,8 +8320,12 @@
       <c r="C445" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D445" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/smallest-sum-contiguous-subarray/</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6559,8 +8335,12 @@
       <c r="C446" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D446" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/knapsack-with-duplicate-items4201/1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6570,8 +8350,12 @@
       <c r="C447" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D447" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/word-break/0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6581,8 +8365,12 @@
       <c r="C448" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D448" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/largest-independent-set-problem-dp-26/</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6592,8 +8380,12 @@
       <c r="C449" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D449" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6603,8 +8395,12 @@
       <c r="C450" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D450" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6614,8 +8410,12 @@
       <c r="C451" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D451" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6625,8 +8425,12 @@
       <c r="C452" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D452" t="str">
+        <f t="shared" si="6"/>
+        <v>https://leetcode.com/problems/longest-palindromic-substring/</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6636,8 +8440,12 @@
       <c r="C453" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D453" t="str">
+        <f t="shared" si="6"/>
+        <v>https://practice.geeksforgeeks.org/problems/longest-alternating-subsequence/0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6647,8 +8455,12 @@
       <c r="C454" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D454" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.geeksforgeeks.org/weighted-job-scheduling/</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6658,8 +8470,12 @@
       <c r="C455" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D455" t="str">
+        <f t="shared" ref="D455:D481" si="7">URL(B455)</f>
+        <v>https://www.geeksforgeeks.org/coin-game-winner-every-player-three-choices/</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6669,8 +8485,12 @@
       <c r="C456" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D456" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/count-derangements-permutation-such-that-no-element-appears-in-its-original-position/</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6680,8 +8500,12 @@
       <c r="C457" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D457" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6691,8 +8515,12 @@
       <c r="C458" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D458" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/optimal-strategy-for-a-game/0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6702,8 +8530,12 @@
       <c r="C459" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D459" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/optimal-binary-search-tree-dp-24/</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6713,8 +8545,12 @@
       <c r="C460" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D460" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/palindromic-patitioning4845/1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6724,8 +8560,12 @@
       <c r="C461" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D461" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/word-wrap/0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6735,8 +8575,12 @@
       <c r="C462" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D462" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/mobile-numeric-keypad5456/1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6746,8 +8590,12 @@
       <c r="C463" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D463" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/boolean-parenthesization/0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6757,8 +8605,12 @@
       <c r="C464" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D464" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/largest-rectangular-sub-matrix-whose-sum-0/</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6768,8 +8620,12 @@
       <c r="C465" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D465" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/largest-area-rectangular-sub-matrix-equal-number-1s-0s/</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6779,8 +8635,12 @@
       <c r="C466" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D466" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximum-sum-rectangle/0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6790,8 +8650,12 @@
       <c r="C467" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D467" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/maximum-profit4657/1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6801,8 +8665,12 @@
       <c r="C468" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D468" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/interleaved-strings/1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6812,17 +8680,29 @@
       <c r="C469" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D469" t="str">
+        <f t="shared" si="7"/>
+        <v>https://leetcode.com/problems/maximum-length-of-pair-chain/</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
-    </row>
-    <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D470" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
-    </row>
-    <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D471" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -6832,8 +8712,12 @@
       <c r="C472" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D472" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/set-bits0143/1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -6843,8 +8727,12 @@
       <c r="C473" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D473" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/finding-the-numbers0215/1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -6854,8 +8742,12 @@
       <c r="C474" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D474" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/bit-difference/0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -6865,8 +8757,12 @@
       <c r="C475" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D475" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/count-total-set-bits/0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -6876,8 +8772,12 @@
       <c r="C476" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D476" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/power-of-2/0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -6887,8 +8787,12 @@
       <c r="C477" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D477" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/find-position-of-set-bit3706/1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -6898,8 +8802,12 @@
       <c r="C478" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D478" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/copy-set-bits-in-a-range/</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -6909,8 +8817,12 @@
       <c r="C479" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D479" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/divide-two-integers-without-using-multiplication-division-mod-operator/</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -6920,8 +8832,12 @@
       <c r="C480" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D480" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.geeksforgeeks.org/calculate-square-of-a-number-without-using-and-pow/</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>
@@ -6930,6 +8846,10 @@
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D481" t="str">
+        <f t="shared" si="7"/>
+        <v>https://practice.geeksforgeeks.org/problems/power-set4302/1</v>
       </c>
     </row>
   </sheetData>
